--- a/data/trans_camb/IP2005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,94</t>
+          <t>-3,16; 6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,93</t>
+          <t>-0,3; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,3</t>
+          <t>-5,41; 5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,27</t>
+          <t>-5,11; 4,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,7</t>
+          <t>-2,11; 7,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,21</t>
+          <t>-8,31; 2,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,58</t>
+          <t>-2,88; 4,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,13</t>
+          <t>0,39; 6,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,52</t>
+          <t>-4,92; 2,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>-1,32%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,91</t>
+          <t>-3,47; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 4,65</t>
+          <t>-0,35; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,54</t>
+          <t>-5,99; 6,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,3</t>
+          <t>-5,62; 5,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,38</t>
+          <t>-2,31; 8,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,64</t>
+          <t>-9,22; 2,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,25</t>
+          <t>-3,2; 4,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,09</t>
+          <t>0,45; 7,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,58</t>
+          <t>-5,36; 2,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,89</t>
+          <t>-4,83; 4,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,32</t>
+          <t>-5,62; 3,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,19</t>
+          <t>-2,57; 6,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,99</t>
+          <t>-4,01; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,15</t>
+          <t>-0,27; 8,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 2,57</t>
+          <t>-1,63; 7,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,28</t>
+          <t>-3,28; 3,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,83</t>
+          <t>-1,33; 5,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,43</t>
+          <t>-0,84; 5,52</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,16</t>
+          <t>-5,41; 5,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,64</t>
+          <t>-6,26; 4,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,13</t>
+          <t>-2,86; 7,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,77</t>
+          <t>-4,56; 6,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,27</t>
+          <t>-0,29; 10,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,96</t>
+          <t>-1,8; 8,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,95</t>
+          <t>-3,72; 4,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,92</t>
+          <t>-1,5; 6,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,76</t>
+          <t>-0,96; 6,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,95</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-10,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,0</t>
+          <t>2,06; 11,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,45</t>
+          <t>3,28; 12,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -0,53</t>
+          <t>-17,75; 0,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,57</t>
+          <t>0,96; 13,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,86</t>
+          <t>3,74; 15,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -4,57</t>
+          <t>-23,03; -1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,93</t>
+          <t>2,6; 10,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,76</t>
+          <t>4,81; 12,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; -3,84</t>
+          <t>-17,46; -3,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>-13,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-11,06%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,05</t>
+          <t>2,17; 13,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,5</t>
+          <t>3,39; 14,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -0,58</t>
+          <t>-18,99; 0,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 9,65</t>
+          <t>1,07; 15,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,48</t>
+          <t>3,91; 18,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -5,09</t>
+          <t>-25,13; -1,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,75</t>
+          <t>2,82; 11,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,73</t>
+          <t>5,06; 13,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -4,22</t>
+          <t>-18,58; -4,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-4,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,89</t>
+          <t>-1,93; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,32</t>
+          <t>0,81; 7,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,19</t>
+          <t>-8,48; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,99</t>
+          <t>-4,8; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,15</t>
+          <t>-1,94; 5,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 2,57</t>
+          <t>-10,61; -0,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,28</t>
+          <t>-2,02; 3,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,83</t>
+          <t>0,66; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,43</t>
+          <t>-7,87; -0,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-5,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-4,66%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,16</t>
+          <t>-2,04; 6,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,64</t>
+          <t>0,86; 8,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,13</t>
+          <t>-9,07; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,77</t>
+          <t>-5,1; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,27</t>
+          <t>-2,07; 6,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,96</t>
+          <t>-11,59; -0,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,95</t>
+          <t>-2,18; 3,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,92</t>
+          <t>0,7; 6,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,76</t>
+          <t>-8,5; -0,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,94</t>
+          <t>-3,99; 9,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,93</t>
+          <t>-6,34; 7,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,3</t>
+          <t>-5,12; 8,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,27</t>
+          <t>-2,13; 10,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,7</t>
+          <t>3,33; 15,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,21</t>
+          <t>-2,63; 10,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,58</t>
+          <t>-1,06; 7,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,13</t>
+          <t>-0,02; 8,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,52</t>
+          <t>-2,08; 7,0</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,91</t>
+          <t>-4,52; 11,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 4,65</t>
+          <t>-7,17; 8,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,54</t>
+          <t>-5,76; 10,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,3</t>
+          <t>-2,44; 13,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,38</t>
+          <t>3,87; 19,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,64</t>
+          <t>-3,06; 13,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,25</t>
+          <t>-1,22; 9,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,09</t>
+          <t>-0,06; 10,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,58</t>
+          <t>-2,39; 8,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,65</t>
+          <t>-6,43; 5,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,01</t>
+          <t>-5,61; 6,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,21</t>
+          <t>-2,02; 8,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,21</t>
+          <t>-6,32; 4,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,89</t>
+          <t>-2,98; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,21</t>
+          <t>-2,83; 7,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,53</t>
+          <t>-4,6; 3,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,18</t>
+          <t>-2,53; 5,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,91</t>
+          <t>-0,74; 6,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,34</t>
+          <t>-7,28; 6,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,77</t>
+          <t>-6,41; 7,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,51</t>
+          <t>-2,15; 10,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,85</t>
+          <t>-7,14; 5,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,9</t>
+          <t>-3,39; 9,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,39</t>
+          <t>-3,22; 8,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,99</t>
+          <t>-5,22; 4,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,94</t>
+          <t>-2,84; 6,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,04</t>
+          <t>-0,82; 8,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 4,92</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 4,91</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 2,33</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 4,5</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 6,87</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 1,32</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 3,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 5,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 1,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-1,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 5,61</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 5,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 2,67</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 5,18</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 7,89</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 1,52</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 4,36</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 5,88</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 1,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP2005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,99</t>
+          <t>1,82; 11,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,97</t>
+          <t>3,36; 13,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 0,85</t>
+          <t>-18,11; -0,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,23</t>
+          <t>1,45; 13,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 15,87</t>
+          <t>4,22; 16,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -1,38</t>
+          <t>-22,98; -1,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,25</t>
+          <t>2,84; 10,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 12,08</t>
+          <t>4,8; 12,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -3,7</t>
+          <t>-18,11; -3,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,93</t>
+          <t>1,89; 12,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 14,91</t>
+          <t>3,48; 15,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 0,86</t>
+          <t>-19,09; -0,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 15,71</t>
+          <t>1,55; 16,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 18,86</t>
+          <t>4,48; 19,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -1,87</t>
+          <t>-24,12; -1,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,72</t>
+          <t>3,02; 12,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 13,77</t>
+          <t>5,07; 13,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,58; -4,03</t>
+          <t>-19,48; -4,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,54</t>
+          <t>-1,6; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,64</t>
+          <t>0,86; 7,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,53</t>
+          <t>-8,27; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,72</t>
+          <t>-4,91; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,71</t>
+          <t>-1,43; 6,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,57</t>
+          <t>-10,1; -0,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,51</t>
+          <t>-2,35; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,86</t>
+          <t>0,6; 5,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -0,78</t>
+          <t>-7,75; -1,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,2</t>
+          <t>-1,77; 6,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,59</t>
+          <t>0,93; 8,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 1,73</t>
+          <t>-8,84; 1,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,1</t>
+          <t>-5,19; 4,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,31</t>
+          <t>-1,53; 6,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -0,64</t>
+          <t>-10,89; -0,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,88</t>
+          <t>-2,54; 3,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,5</t>
+          <t>0,69; 6,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,93</t>
+          <t>-8,36; -1,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,39</t>
+          <t>-4,95; 8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 7,02</t>
+          <t>-6,2; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 8,05</t>
+          <t>-5,09; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,99</t>
+          <t>-2,32; 11,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 15,41</t>
+          <t>2,87; 15,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 10,93</t>
+          <t>-3,11; 11,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 7,81</t>
+          <t>-1,6; 8,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 8,74</t>
+          <t>-0,39; 8,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 7,0</t>
+          <t>-2,61; 7,33</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 11,56</t>
+          <t>-5,5; 10,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 8,75</t>
+          <t>-7,17; 8,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 10,08</t>
+          <t>-5,82; 10,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 13,94</t>
+          <t>-2,69; 14,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 19,84</t>
+          <t>3,47; 19,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 13,79</t>
+          <t>-3,48; 14,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 9,59</t>
+          <t>-1,81; 10,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,74</t>
+          <t>-0,41; 10,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,64</t>
+          <t>-3,02; 8,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 5,26</t>
+          <t>-5,79; 5,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 6,66</t>
+          <t>-5,65; 6,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,78</t>
+          <t>-1,67; 8,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,94</t>
+          <t>-6,58; 5,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 7,84</t>
+          <t>-2,75; 8,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 7,37</t>
+          <t>-3,2; 7,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,48</t>
+          <t>-4,41; 3,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,24</t>
+          <t>-2,46; 5,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,74</t>
+          <t>-1,02; 6,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 6,36</t>
+          <t>-6,5; 6,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,9</t>
+          <t>-6,35; 7,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 10,7</t>
+          <t>-1,84; 10,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 5,88</t>
+          <t>-7,39; 6,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 9,23</t>
+          <t>-3,05; 9,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 8,69</t>
+          <t>-3,55; 8,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 4,15</t>
+          <t>-5,02; 4,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,19</t>
+          <t>-2,77; 6,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,0</t>
+          <t>-1,14; 7,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,92</t>
+          <t>-0,94; 4,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,91</t>
+          <t>-0,37; 4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,33</t>
+          <t>-3,97; 1,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,5</t>
+          <t>-1,19; 4,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,87</t>
+          <t>1,78; 6,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,32</t>
+          <t>-4,17; 1,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,81</t>
+          <t>-0,13; 3,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,14</t>
+          <t>1,32; 5,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,29</t>
+          <t>-3,25; 0,97</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,61</t>
+          <t>-1,04; 5,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,59</t>
+          <t>-0,38; 5,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,67</t>
+          <t>-4,42; 2,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,18</t>
+          <t>-1,31; 4,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,89</t>
+          <t>1,98; 7,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,52</t>
+          <t>-4,57; 1,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,36</t>
+          <t>-0,14; 4,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,88</t>
+          <t>1,47; 5,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,46</t>
+          <t>-3,62; 1,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,34 +632,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8,61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-11,52</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,04</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>7,37</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-8,07</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,61</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,85</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>6,15</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>-9,92</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,48</t>
+          <t>1,07; 13,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 13,26</t>
+          <t>3,7; 16,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -0,07</t>
+          <t>-22,92; -0,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,78</t>
+          <t>1,47; 11,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 16,14</t>
+          <t>3,99; 13,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,98; -1,07</t>
+          <t>-17,21; 0,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,85</t>
+          <t>2,51; 10,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,1</t>
+          <t>4,7; 11,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -3,77</t>
+          <t>-16,85; -3,37</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,52%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>7,96%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,72%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,14%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-8,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-10,81%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,98</t>
+          <t>1,16; 15,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 15,28</t>
+          <t>3,94; 19,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -0,15</t>
+          <t>-24,52; -1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 16,65</t>
+          <t>1,67; 13,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 19,36</t>
+          <t>4,16; 15,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -1,12</t>
+          <t>-18,43; 0,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,41</t>
+          <t>2,63; 11,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 13,84</t>
+          <t>4,94; 13,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,48; -4,15</t>
+          <t>-18,14; -3,84</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>4,19</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-4,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,01</t>
+          <t>-4,91; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,82</t>
+          <t>-1,29; 6,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1,31</t>
+          <t>-9,84; -0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,99</t>
+          <t>-1,45; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,0</t>
+          <t>1,07; 7,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -0,63</t>
+          <t>-9,09; 0,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,36</t>
+          <t>-2,0; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,69</t>
+          <t>0,91; 5,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,17</t>
+          <t>-7,62; -0,89</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,18%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>4,56%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,73%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-4,62%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,73</t>
+          <t>-5,18; 3,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,76</t>
+          <t>-1,35; 7,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 1,44</t>
+          <t>-10,73; -0,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 4,42</t>
+          <t>-1,56; 6,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,66</t>
+          <t>1,09; 8,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -0,69</t>
+          <t>-9,8; 1,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,69</t>
+          <t>-2,13; 3,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,33</t>
+          <t>0,95; 6,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -1,28</t>
+          <t>-8,25; -1,01</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,4</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,23</t>
+          <t>-2,04; 11,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 7,0</t>
+          <t>2,87; 14,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 8,04</t>
+          <t>-2,51; 11,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 11,21</t>
+          <t>-4,18; 9,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 15,52</t>
+          <t>-6,28; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 11,09</t>
+          <t>-5,13; 7,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 8,1</t>
+          <t>-1,5; 8,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,78</t>
+          <t>0,13; 9,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,33</t>
+          <t>-2,34; 7,63</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>2,84%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,22%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 10,16</t>
+          <t>-2,39; 14,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 8,72</t>
+          <t>3,25; 19,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 10,15</t>
+          <t>-2,88; 14,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 14,1</t>
+          <t>-4,72; 11,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 19,97</t>
+          <t>-7,24; 8,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 14,16</t>
+          <t>-5,91; 9,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,0</t>
+          <t>-1,75; 10,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 10,98</t>
+          <t>0,26; 11,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,88</t>
+          <t>-2,76; 9,31</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,66</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,26</t>
+          <t>-6,13; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 6,2</t>
+          <t>-3,37; 7,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,93</t>
+          <t>-2,36; 8,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,08</t>
+          <t>-6,12; 4,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 8,3</t>
+          <t>-5,66; 6,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 7,2</t>
+          <t>-1,39; 9,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,47</t>
+          <t>-4,76; 3,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,54</t>
+          <t>-2,84; 5,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,41</t>
+          <t>-0,35; 6,72</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-0,76%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0,52%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 6,17</t>
+          <t>-6,92; 6,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 7,5</t>
+          <t>-3,72; 9,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,78</t>
+          <t>-2,69; 9,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,02</t>
+          <t>-6,81; 5,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 9,88</t>
+          <t>-6,37; 7,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,71</t>
+          <t>-1,57; 11,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 4,11</t>
+          <t>-5,46; 4,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,58</t>
+          <t>-3,18; 6,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,56</t>
+          <t>-0,37; 7,97</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>2,08</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>2,36</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,42</t>
+          <t>-1,26; 4,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,82</t>
+          <t>1,69; 6,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,88</t>
+          <t>-4,3; 1,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,19</t>
+          <t>-0,7; 4,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,91</t>
+          <t>-0,4; 5,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,62</t>
+          <t>-3,75; 2,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,75</t>
+          <t>-0,23; 3,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,16</t>
+          <t>1,42; 5,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,97</t>
+          <t>-2,98; 1,14</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>2,35%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>2,66%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-1,03%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,08</t>
+          <t>-1,4; 4,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,49</t>
+          <t>1,88; 7,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,14</t>
+          <t>-4,78; 1,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,84</t>
+          <t>-0,77; 5,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,94</t>
+          <t>-0,45; 5,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,88</t>
+          <t>-4,15; 2,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,27</t>
+          <t>-0,26; 3,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,83</t>
+          <t>1,58; 5,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,11</t>
+          <t>-3,32; 1,29</t>
         </is>
       </c>
     </row>
